--- a/biology/Origine et évolution du vivant/Panarthropoda/Panarthropoda.xlsx
+++ b/biology/Origine et évolution du vivant/Panarthropoda/Panarthropoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Panarthropodes (Panarthropoda) sont un clade d'animaux ecdysozoaires segmentés à squelette externe plus ou moins rigide. Il comprend les Arthropodes, ainsi que les Onychophores et les Tardigrades, parfois regroupés dans le clade des Pararthropodes.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Panarthropoda vient du grec ancien πᾶν, pân (« tout, totalité ») ;  ἄρθρον, arthron (« articulation ») et de ποδός, podos (« de pied »).
 </t>
@@ -542,13 +556,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les panarthropodes se caractérisent par :
 la présence de pattes,
 la présence de griffes,
 un système nerveux ventral avec ganglions cérébroïdes fusionnés,
-un corps segmenté (métamérie qui a la même origine[1]),
+un corps segmenté (métamérie qui a la même origine),
 une mue permettant la croissance de l'individu,
 un nombre d'appendices pairs,
 des appendices péribucaux modifiés pour la prise de nourriture,
